--- a/java/java809/src/out/com/mtsmda/book/java8/bitwise.xlsx
+++ b/java/java809/src/out/com/mtsmda/book/java8/bitwise.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>int</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -654,62 +660,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56:K56"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D1" s="1">
+        <v>512</v>
+      </c>
+      <c r="E1" s="1">
         <v>256</v>
       </c>
-      <c r="D1" s="1">
+      <c r="F1" s="1">
         <v>128</v>
       </c>
-      <c r="E1" s="1">
+      <c r="G1" s="1">
         <v>64</v>
       </c>
-      <c r="F1" s="1">
+      <c r="H1" s="1">
         <v>32</v>
       </c>
-      <c r="G1" s="1">
+      <c r="I1" s="1">
         <v>16</v>
       </c>
-      <c r="H1" s="1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>4</v>
       </c>
-      <c r="J1" s="1">
+      <c r="L1" s="1">
         <v>2</v>
       </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>128</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,26 +732,26 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>159</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -756,19 +762,19 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>128</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -785,28 +791,28 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7">
         <v>79</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -814,44 +820,44 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -859,36 +865,36 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>79</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -896,61 +902,67 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -962,22 +974,18 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B16">
         <v>128</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -994,26 +1002,26 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>159</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1024,25 +1032,25 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>159</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1053,28 +1061,28 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20">
         <v>79</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1082,52 +1090,52 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>36</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>111</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1135,28 +1143,28 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24">
         <v>79</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1164,49 +1172,49 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>95</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1217,8 +1225,14 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1230,22 +1244,18 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B29">
         <v>128</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1262,26 +1272,26 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>159</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1292,17 +1302,17 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>31</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -1312,28 +1322,28 @@
       <c r="K31">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B33">
         <v>79</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1341,46 +1351,46 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>36</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>107</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1392,30 +1402,30 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B37">
         <v>79</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -1423,44 +1433,44 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>25</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>86</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>1</v>
       </c>
@@ -1471,13 +1481,19 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1489,22 +1505,18 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42">
         <v>128</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1521,36 +1533,36 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>-129</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B46">
         <v>79</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -1558,36 +1570,36 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>-80</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B50">
         <v>79</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -1595,16 +1607,22 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>-80</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1616,22 +1634,18 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B55">
         <v>128</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1648,54 +1662,69 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>31</v>
+        <v>512</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B59">
         <v>79</v>
       </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -1703,43 +1732,28 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60">
-        <v>36</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1748,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -1756,25 +1770,19 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B63">
-        <v>79</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -1783,63 +1791,48 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64">
-        <v>25</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>86</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1851,24 +1844,365 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>128</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>79</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>128</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>32</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>79</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>19</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="21">
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
